--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2240.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2240.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.324242209560911</v>
+        <v>1.090784430503845</v>
       </c>
       <c r="B1">
-        <v>2.95727461520412</v>
+        <v>2.449971914291382</v>
       </c>
       <c r="C1">
-        <v>8.045344105715834</v>
+        <v>6.389114379882812</v>
       </c>
       <c r="D1">
-        <v>1.938003852745143</v>
+        <v>2.21128249168396</v>
       </c>
       <c r="E1">
-        <v>1.070377769773772</v>
+        <v>1.272898435592651</v>
       </c>
     </row>
   </sheetData>
